--- a/tests/artifact/script/RestApi.xlsx
+++ b/tests/artifact/script/RestApi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6380" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6500" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2450,7 +2450,7 @@
     <t>And asserting whether the elapsed time is lesser than or eqals to 500milli seconds</t>
   </si>
   <si>
-    <t>500</t>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -6345,7 +6345,7 @@
   <dimension ref="A1:O189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
@@ -9874,8 +9874,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="F26" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/tests/artifact/script/RestApi.xlsx
+++ b/tests/artifact/script/RestApi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6500" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2450,7 +2450,7 @@
     <t>And asserting whether the elapsed time is lesser than or eqals to 500milli seconds</t>
   </si>
   <si>
-    <t>10</t>
+    <t>1000</t>
   </si>
 </sst>
 </file>

--- a/tests/artifact/script/RestApi.xlsx
+++ b/tests/artifact/script/RestApi.xlsx
@@ -2450,7 +2450,7 @@
     <t>And asserting whether the elapsed time is lesser than or eqals to 500milli seconds</t>
   </si>
   <si>
-    <t>1000</t>
+    <t>1</t>
   </si>
 </sst>
 </file>

--- a/tests/artifact/script/RestApi.xlsx
+++ b/tests/artifact/script/RestApi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2450,7 +2450,7 @@
     <t>And asserting whether the elapsed time is lesser than or eqals to 500milli seconds</t>
   </si>
   <si>
-    <t>1</t>
+    <t>61</t>
   </si>
 </sst>
 </file>
@@ -6347,7 +6347,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9874,5 +9874,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="F26" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/tests/artifact/script/RestApi.xlsx
+++ b/tests/artifact/script/RestApi.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="793">
   <si>
     <t>target</t>
   </si>
@@ -2448,9 +2448,6 @@
   </si>
   <si>
     <t>And asserting whether the elapsed time is lesser than or eqals to 500milli seconds</t>
-  </si>
-  <si>
-    <t>61</t>
   </si>
 </sst>
 </file>
@@ -6347,7 +6344,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -7048,7 +7045,7 @@
         <v>791</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -9874,8 +9871,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="F26" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/tests/artifact/script/RestApi.xlsx
+++ b/tests/artifact/script/RestApi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="794">
   <si>
     <t>target</t>
   </si>
@@ -2448,6 +2448,9 @@
   </si>
   <si>
     <t>And asserting whether the elapsed time is lesser than or eqals to 500milli seconds</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -6344,7 +6347,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -7045,7 +7048,7 @@
         <v>791</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>

--- a/tests/artifact/script/RestApi.xlsx
+++ b/tests/artifact/script/RestApi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -6347,7 +6347,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>

--- a/tests/artifact/script/RestApi.xlsx
+++ b/tests/artifact/script/RestApi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6800" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -56,12 +56,25 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="793">
   <si>
     <t>target</t>
   </si>
@@ -2449,14 +2462,11 @@
   <si>
     <t>And asserting whether the elapsed time is lesser than or eqals to 500milli seconds</t>
   </si>
-  <si>
-    <t>1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -6344,10 +6354,10 @@
   <sheetPr/>
   <dimension ref="A1:O189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -7048,7 +7058,7 @@
         <v>791</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
